--- a/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
+++ b/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001312</t>
+          <t>002363</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合A</t>
+          <t>华安安康灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.52</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002144</t>
+          <t>001312</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合C</t>
+          <t>华安新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>25.52</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.59</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002363</t>
+          <t>005695</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合A</t>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.04</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>26.04</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.46</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005695</t>
+          <t>002144</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
+          <t>华安新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>90.43</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.05</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005695</t>
+          <t>007592</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
+          <t>华夏价值精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005696</t>
+          <t>160642</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -762,25 +862,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007592</t>
+          <t>002363</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏价值精选混合</t>
+          <t>华安安康灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>13.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001312</t>
+          <t>005695</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合A</t>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.84</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -818,25 +938,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002144</t>
+          <t>001312</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合C</t>
+          <t>华安新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>23.84</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.14</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160642</t>
+          <t>002364</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
+          <t>华安安康灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002363</t>
+          <t>002144</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合A</t>
+          <t>华安新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002364</t>
+          <t>005696</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合C</t>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
+++ b/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
+++ b/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,324 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5037</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
+++ b/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1655,4 +1656,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
+++ b/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1664,7 +1665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1675,17 +1676,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1695,14 +1716,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.86</v>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1393</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1711,14 +1754,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.31</v>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1727,14 +1792,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.68</v>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1743,13 +1830,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3155</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
+++ b/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2367,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2378,17 +2379,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2398,14 +2419,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.26</v>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8288</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2414,14 +2457,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.86</v>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2430,14 +2495,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.31</v>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5552</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2446,14 +2533,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.68</v>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2462,13 +2571,699 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
+++ b/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3146,7 +3147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3157,17 +3158,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3177,14 +3198,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.77</v>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9007</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3193,14 +3236,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.26</v>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3209,14 +3274,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.86</v>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3225,14 +3312,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.31</v>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3241,14 +3350,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.68</v>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3257,13 +3388,331 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
+++ b/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>2.19</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.77</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>4.26</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.86</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.31</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.68</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -600,6 +617,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5688</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015652</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015572</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012177</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1031,7 +1522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1809,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2511,7 +3002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2831,7 +3322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3077,7 +3568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3437,7 +3928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
+++ b/数据整理/stocks/A股/上证主板/600116-三峡水利.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>2.19</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>3.77</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>4.26</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0.86</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.31</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.68</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,318 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +984,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>24.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>75.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5688</t>
+          <t>0.6068</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +1022,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.69</t>
+          <t>86.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2606</t>
+          <t>0.2601</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -759,22 +1060,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70.88</t>
+          <t>72.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2230</t>
+          <t>0.2199</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -797,26 +1098,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>75.57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1904</t>
+          <t>0.2191</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1126,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005904</t>
+          <t>010339</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰保兴成长优选混合A</t>
+          <t>国投瑞银远见成长混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.96</t>
+          <t>86.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1496</t>
+          <t>0.0527</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1164,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012132</t>
+          <t>015572</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰保兴价值成长混合A</t>
+          <t>国投瑞银瑞源灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.32</t>
+          <t>72.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0457</t>
+          <t>0.0450</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -901,32 +1202,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010339</t>
+          <t>014541</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合C</t>
+          <t>华安新能源主题混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.69</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0434</t>
+          <t>0.0336</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -939,36 +1240,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>015572</t>
+          <t>620001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银瑞源灵活配置混合C</t>
+          <t>金元顺安宝石动力混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>70.88</t>
+          <t>56.89</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0304</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +1278,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>620001</t>
+          <t>015564</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金元顺安宝石动力混合</t>
+          <t>大成弘远回报一年持有混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>40.12</t>
+          <t>27.63</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0291</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1316,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012177</t>
+          <t>014542</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰保兴价值成长混合C</t>
+          <t>华安新能源主题混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>85.32</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +1354,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005905</t>
+          <t>015565</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰保兴成长优选混合C</t>
+          <t>大成弘远回报一年持有混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.96</t>
+          <t>27.63</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1091,6 +1392,480 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5688</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015652</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015572</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012177</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1522,7 +2297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2300,7 +3075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3002,7 +3777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3322,7 +4097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3568,7 +4343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3926,288 +4701,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002363</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2616</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001312</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安新优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>25.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1165</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005695</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0613</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002364</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0536</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002144</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安新优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>25.52</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0254</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005696</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>